--- a/01_MCUv7/Протокол_обмена_В_редакции.xlsx
+++ b/01_MCUv7/Протокол_обмена_В_редакции.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Git\Git_Biganto\01_MCUv7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_Git\GitLab\mcu-v7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237FC2D1-5812-4455-830E-7ECEB073F133}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FA3833-C85B-4586-AADC-9B58378DCB2D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A36A239C-BD62-41A8-A6F5-357F242A5261}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="155">
   <si>
     <t>Команда</t>
   </si>
@@ -487,6 +487,9 @@
   </si>
   <si>
     <t>Нужна ли эта команда? Возможно нужно переименовать в StartMeasureTemperature</t>
+  </si>
+  <si>
+    <t>В каком формате?</t>
   </si>
 </sst>
 </file>
@@ -512,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,6 +537,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,7 +653,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -656,36 +686,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -693,6 +693,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1012,7 +1021,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1042,135 +1051,135 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="8" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="8" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="8" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="18"/>
+      <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1185,119 +1194,119 @@
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="9" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="9" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="12" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E18" s="10"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1314,7 +1323,7 @@
       <c r="D20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1331,7 +1340,7 @@
       <c r="D21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1348,7 +1357,7 @@
       <c r="D22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1365,451 +1374,453 @@
       <c r="D23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="16" t="s">
+      <c r="D24" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E24" s="17" t="s">
+      <c r="E24" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17" t="s">
+      <c r="D28" s="8"/>
+      <c r="E28" s="9" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E30" s="17" t="s">
+      <c r="E30" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="17" t="s">
+      <c r="E31" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C32" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E32" s="17" t="s">
+      <c r="E32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E34" s="17" t="s">
+      <c r="E34" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C36" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E36" s="17" t="s">
+      <c r="E36" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C39" s="16" t="s">
+      <c r="C39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="C40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="17" t="s">
+      <c r="E40" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C41" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="9" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C43" s="16" t="s">
+      <c r="C43" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="9" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
+      <c r="A44" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="18" t="s">
+      <c r="C44" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="11"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="8" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="18" t="s">
+      <c r="D47" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="E47" s="18"/>
+      <c r="E47" s="10" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C48" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D48" s="16" t="s">
+      <c r="D48" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="16" t="s">
+      <c r="E48" s="8" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="B49" s="16" t="s">
+      <c r="B49" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E49" s="17" t="s">
+      <c r="E49" s="9" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A50" s="18" t="s">
+      <c r="A50" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="18" t="s">
+      <c r="C50" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="E50" s="19"/>
+      <c r="E50" s="11"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
+      <c r="A51" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="18" t="s">
+      <c r="D51" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="18"/>
+      <c r="E51" s="10"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+      <c r="A52" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="16" t="s">
+      <c r="C52" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D52" s="16" t="s">
+      <c r="D52" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="16" t="s">
+      <c r="E52" s="8" t="s">
         <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A45:E45"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A45:E45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
